--- a/results/model_results_NW.xlsx
+++ b/results/model_results_NW.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>MSE</t>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
         <v>0.824</v>
       </c>
       <c r="E2" t="n">
-        <v>6.239403256848638e+18</v>
+        <v>2497879752.279648</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7867415719736267</v>
+        <v>0.7373551965362258</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1970160450129063</v>
+        <v>0.2068941467928601</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8</v>
+        <v>0.804</v>
       </c>
       <c r="E3" t="n">
-        <v>4.570433111200577e+18</v>
+        <v>2372520551.730291</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0.556</v>
       </c>
       <c r="E4" t="n">
-        <v>7.355731138541228e+18</v>
+        <v>2712145117.529891</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6581985643280091</v>
+        <v>0.6561766018481857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3297545503323976</v>
+        <v>0.3287632619365599</v>
       </c>
       <c r="D5" t="n">
-        <v>0.576</v>
+        <v>0.54</v>
       </c>
       <c r="E5" t="n">
-        <v>7.325293605080729e+18</v>
+        <v>2714521532.94091</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0.8</v>
       </c>
       <c r="E6" t="n">
-        <v>5.959026786529395e+18</v>
+        <v>2441111793.124066</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7706601151928707</v>
+        <v>0.7776909685845804</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1903298107866343</v>
+        <v>0.1839318218717631</v>
       </c>
       <c r="D7" t="n">
-        <v>0.796</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>4.915081729439566e+18</v>
+        <v>2182750669.647742</v>
       </c>
     </row>
   </sheetData>

--- a/results/model_results_NW.xlsx
+++ b/results/model_results_NW.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7373551965362258</v>
+        <v>0.7444385694071531</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2068941467928601</v>
+        <v>0.1828734052301458</v>
       </c>
       <c r="D3" t="n">
-        <v>0.804</v>
+        <v>0.828</v>
       </c>
       <c r="E3" t="n">
-        <v>2372520551.730291</v>
+        <v>2340309158.474282</v>
       </c>
     </row>
     <row r="4">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6561766018481857</v>
+        <v>0.6514326439213914</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3287632619365599</v>
+        <v>0.3272616289431489</v>
       </c>
       <c r="D5" t="n">
-        <v>0.54</v>
+        <v>0.536</v>
       </c>
       <c r="E5" t="n">
-        <v>2714521532.94091</v>
+        <v>2733184398.444318</v>
       </c>
     </row>
     <row r="6">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7776909685845804</v>
+        <v>0.7483460916458602</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1839318218717631</v>
+        <v>0.1861923933740124</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.824</v>
       </c>
       <c r="E7" t="n">
-        <v>2182750669.647742</v>
+        <v>2322348631.706902</v>
       </c>
     </row>
   </sheetData>

--- a/results/model_results_NW.xlsx
+++ b/results/model_results_NW.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7444385694071531</v>
+        <v>0.7974515101314734</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1828734052301458</v>
+        <v>0.1873961278259272</v>
       </c>
       <c r="D3" t="n">
-        <v>0.828</v>
+        <v>0.788</v>
       </c>
       <c r="E3" t="n">
-        <v>2340309158.474282</v>
+        <v>2083483577.882385</v>
       </c>
     </row>
     <row r="4">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6514326439213914</v>
+        <v>0.6591289087188662</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3272616289431489</v>
+        <v>0.3192308163897702</v>
       </c>
       <c r="D5" t="n">
-        <v>0.536</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>2733184398.444318</v>
+        <v>2702842021.691585</v>
       </c>
     </row>
     <row r="6">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7483460916458602</v>
+        <v>0.7657840586270763</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1861923933740124</v>
+        <v>0.1837928974058118</v>
       </c>
       <c r="D7" t="n">
-        <v>0.824</v>
+        <v>0.804</v>
       </c>
       <c r="E7" t="n">
-        <v>2322348631.706902</v>
+        <v>2240442499.886604</v>
       </c>
     </row>
   </sheetData>
